--- a/PCBuilderBot Parts.xlsx
+++ b/PCBuilderBot Parts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\PCBuilderBot-JS\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\PCBuilderBot-JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{968DDAC0-7DE0-4508-A6EF-6E43435B1D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F21F0-8FFF-4059-9626-90F212D7C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EC25AB3C-DFC3-4C09-9D3E-8D4AAEFF1706}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC25AB3C-DFC3-4C09-9D3E-8D4AAEFF1706}"/>
   </bookViews>
   <sheets>
     <sheet name="Small Budget" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="166">
   <si>
     <t>CPU</t>
   </si>
@@ -418,6 +418,123 @@
   </si>
   <si>
     <t>okay</t>
+  </si>
+  <si>
+    <t>The Core i3-12100 comes with a 60W PBP (base) and 89W MTP (peak) power rating. The chip clocks in with a 3.3 GHz base and boosts up to 4.3 GHz. It also comes with 12 MB of L3 cache. The Core i3-12100 is a locked chip, meaning it isn't overclockable.</t>
+  </si>
+  <si>
+    <t>Core i5-12400 has 18MB of L3 cache and operates at 2.5 GHz by default, but can boost up to 4.4 GHz, depending on the workload. Intel is building the Core i5-12400 on a 10 nm production process, the transistor count is unknown. The multiplier is locked on Core i5-12400, which limits its overclocking capabilities.</t>
+  </si>
+  <si>
+    <t>Ryzen 3 2200G is a 64-bit quad-core low-end performance x86 desktop microprocessor introduced by AMD in early 2018. This processor is based on AMD's Zen microarchitecture and is fabricated on a 14 nm process. The 2200G operates at a base frequency of 3.5 GHz with a TDP of 65 W and a Boost frequency of 3.7 GHz.</t>
+  </si>
+  <si>
+    <t>Athlon 240GE is a 64-bit dual-core low-end performance x86 desktop microprocessor introduced by AMD in late 2018. This processor is based on AMD's Zen microarchitecture and is fabricated on a 14 nm process. The 240GE operates at a base frequency of 3.5 GHz with a TDP of 35 W.</t>
+  </si>
+  <si>
+    <t>Designed for high-performance gaming and multitasking, the Ryzen 3 3300X Quad-Core AM4 Processor from AMD has a base clock speed of 3.8 GHz, a maximum turbo frequency of 4.3 GHz, and supports PCIe 4.0 bandwidth. Additionally, this processor features four cores with eight threads in an AM4 socket with 16MB of L3 cache memory.</t>
+  </si>
+  <si>
+    <t>H610M-HDV&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports 12th Gen Intel&amp;reg; Core&amp;trade; Processors (LGA1700)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>5 Phase Power Design&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports DDR4 3200MHz&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>1 PCIe 4.0 x16, 1 PCIe 3.0 x1&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Graphics Output Options: HDMI, DisplayPort, D-Sub&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Realtek ALC887/897 7.1 CH HD Audio Codec&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>4 SATA3&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>4 USB 3.2 Gen1 (2 Rear, 2 Front)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>6 USB 2.0 (4 Rear, 2 Front)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Realtek Gigabit LAN</t>
+  </si>
+  <si>
+    <t>B660M-HDV&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>6 Phase Power Design&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports DDR4 5066MHz (OC)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>1 PCIe 4.0 x16, 2 PCIe 3.0 x1&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>1 M.2 Key-E for WiFi&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Realtek ALC887/897 7.1 CH HD Audio Codec, Nahimic Audio&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>1 Hyper M.2 (PCIe Gen4 x4)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>1 Ultra M.2 (PCIe Gen3 x4 &amp;amp; SATA3)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>6 USB 3.2 Gen1 (3 Rear, 1 Rear Type-C, 2 Front)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>5 USB 2.0 (2 Rear, 3 Front)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Intel&amp;reg; Gigabit LAN</t>
+  </si>
+  <si>
+    <t>Digi-Power</t>
+  </si>
+  <si>
+    <t>AMD AM4 motherboard inspired from architectural design, with Core Boost, DDR4 Boost, Turbo M.2, USB 3.2 Gen1&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports 1st, 2nd and 3rd Gen AMD Ryzen&amp;trade; / Ryzen&amp;trade; with Radeon&amp;trade; Vega Graphics and 2nd Gen AMD Ryzen&amp;trade; with Radeon&amp;trade; Graphics / Athlon&amp;trade; with Radeon&amp;trade; Vega Graphics and A-series / Athlon X4 Desktop Processors for Socket AM4&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports DDR4 Memory, up to 3200 (OC) MHz&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Turbo M.2: Running at PCI-E Gen3 x4 maximizes performance for NVMe based SSDs.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Audio Boost: Reward your ears with studio grade sound quality.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>X-Boost: Software that auto-detects and allows you to boost the performance of any storage or USB device.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Core Boost: With premium layout and fully digital power design to support more cores and provide better performance.</t>
+  </si>
+  <si>
+    <t>Stronger than Steel</t>
+  </si>
+  <si>
+    <t>Supports 1st, 2nd and 3rd Gen AMD&amp;reg; Ryzen&amp;trade; / Ryzen&amp;trade; with Radeon&amp;trade; Vega Graphics and 2nd Gen AMD&amp;reg; Ryzen&amp;trade;with Radeon&amp;trade; Graphics / Athlon&amp;trade; with Radeon&amp;trade; Vega Graphics and A-series / Athlon&amp;trade; X4 Desktop Processors for Socket AM4&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports DDR4 Memory, up to 4133 (OC) MHz&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Iron Board for Iron Man</t>
   </si>
 </sst>
 </file>
@@ -883,10 +1000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946F4086-FA9B-4743-857D-8E3DB7EB1ED6}">
-  <dimension ref="B2:D38"/>
+  <dimension ref="B2:T47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -894,202 +1011,412 @@
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
     <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="7" max="7" width="20.21875" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" customWidth="1"/>
     <col min="9" max="9" width="21.88671875" customWidth="1"/>
+    <col min="10" max="10" width="11.5546875" customWidth="1"/>
+    <col min="12" max="12" width="20.88671875" customWidth="1"/>
+    <col min="17" max="17" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4">
+        <v>11500</v>
+      </c>
+      <c r="E4">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5">
+        <v>5500</v>
+      </c>
+      <c r="E5">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6">
+        <v>3930</v>
+      </c>
+      <c r="E6">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7">
+        <v>7200</v>
+      </c>
+      <c r="E7">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+      <c r="C10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D10">
+        <v>4800</v>
+      </c>
+      <c r="E10">
+        <v>5000</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10">
+        <v>7800</v>
+      </c>
+      <c r="J10">
+        <v>8000</v>
+      </c>
+      <c r="L10" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+      <c r="M10" t="s">
+        <v>155</v>
+      </c>
+      <c r="N10">
+        <v>2600</v>
+      </c>
+      <c r="O10">
+        <v>3000</v>
+      </c>
+      <c r="Q10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+      <c r="R10" t="s">
+        <v>155</v>
+      </c>
+      <c r="S10">
+        <v>4300</v>
+      </c>
+      <c r="T10">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>162</v>
+      </c>
+      <c r="M11" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>165</v>
+      </c>
+      <c r="R11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" t="s">
+        <v>157</v>
+      </c>
+      <c r="R12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="H13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="s">
+        <v>158</v>
+      </c>
+      <c r="R13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" t="s">
+        <v>146</v>
+      </c>
+      <c r="M14" t="s">
+        <v>159</v>
+      </c>
+      <c r="R14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C15" t="s">
+        <v>137</v>
+      </c>
+      <c r="H15" t="s">
+        <v>147</v>
+      </c>
+      <c r="M15" t="s">
+        <v>160</v>
+      </c>
+      <c r="R15" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="s">
+        <v>161</v>
+      </c>
+      <c r="R16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>141</v>
+      </c>
+      <c r="H19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
+        <v>142</v>
+      </c>
+      <c r="H20" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="H23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
+      <c r="C24" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="3" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="3" t="s">
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="4" t="s">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C33" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D33" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="16">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="16">
         <v>124</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C34" s="16">
         <v>1024</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D34" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="16">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="16">
         <v>250</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C35" s="16">
         <v>2048</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="16">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="16">
         <v>500</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C36" s="16">
         <v>4096</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="16">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="16">
         <v>1024</v>
       </c>
-      <c r="C28" s="16"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+      <c r="C37" s="16"/>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="5" t="s">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C40" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="5" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="5" t="s">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="6" t="s">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C45" t="s">
         <v>26</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D45" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="5" t="s">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C46" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="5" t="s">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C47" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1317,7 +1644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEDCE65-5595-4ED7-92D6-BCE023FF5B2E}">
   <dimension ref="B2:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>

--- a/PCBuilderBot Parts.xlsx
+++ b/PCBuilderBot Parts.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\PCBuilderBot-JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2F21F0-8FFF-4059-9626-90F212D7C211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A82B1B-589A-4A95-8C27-A9AAF60E1C6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EC25AB3C-DFC3-4C09-9D3E-8D4AAEFF1706}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{EC25AB3C-DFC3-4C09-9D3E-8D4AAEFF1706}"/>
   </bookViews>
   <sheets>
     <sheet name="Small Budget" sheetId="1" r:id="rId1"/>
     <sheet name="Mid Budget" sheetId="2" r:id="rId2"/>
     <sheet name="High Budget" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="596">
   <si>
     <t>CPU</t>
   </si>
@@ -75,9 +76,6 @@
     <t>EVGA Supernova GA 600W</t>
   </si>
   <si>
-    <t>EVHA BR 700W</t>
-  </si>
-  <si>
     <t>Ryzen 3 2200G</t>
   </si>
   <si>
@@ -117,21 +115,12 @@
     <t>Versa H22</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
     <t>HEC HX300</t>
   </si>
   <si>
-    <t>med</t>
-  </si>
-  <si>
     <t>Cougar MX340</t>
   </si>
   <si>
-    <t>large</t>
-  </si>
-  <si>
     <t>Intel Core i5- 11400F</t>
   </si>
   <si>
@@ -535,6 +524,1308 @@
   </si>
   <si>
     <t>Iron Board for Iron Man</t>
+  </si>
+  <si>
+    <t>Unbeatable EVGA 10 Year Warranty and unparalleled EVGA Customer Support&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>80 PLUS Gold certified, with 90% (115VAC) / 92% (220VAC~240VAC) efficiency or higher under typical loads&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Fully Modular to reduce clutter and improve airflow&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>NVIDIA SLI &amp;amp; AMD Crossfire Ready&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Double Ball Bearing fan for exceptional reliability and quiet operation&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Heavy-duty protections, including OVP (Over Voltage Protection), UVP (Under Voltage Protection), OCP (Over Current Protection), OPP (Over Power Protection), SCP (Short Circuit Protection), and OTP (Over Temperature Protection)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>100% Japanese Capacitors ensure long-term reliability&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>EVGA ECO Intelligent Thermal Control System eliminates fan noise at low to medium loads&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Active Power Factor Correction&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>DC-DC Converter improves 3.3V/5V stability</t>
+  </si>
+  <si>
+    <t>A New Gold Contender</t>
+  </si>
+  <si>
+    <t>EVGA BR 700W</t>
+  </si>
+  <si>
+    <t>Quiet and Intelligent Auto Fan for near-silent operation&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>80 PLUS Bronze certified, with 85% efficiency or higher under typical loads&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>3 Year Warranty&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Award winning EVGA Support backed by a full 3 Year Warranty!&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Single +12V. Rail&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Standard ATX Form Factor</t>
+  </si>
+  <si>
+    <t>3200mhz</t>
+  </si>
+  <si>
+    <t>DOMINATOR PLATINUM RGB DDR4 3200MHz</t>
+  </si>
+  <si>
+    <t>CORSAIR DOMINATOR® PLATINUM RGB DDR4 Memory redefines premium DDR4 memory, with superior aluminum craftsmanship, tightly screened high-frequency memory chips and 12 ultra-bright, individually addressable CAPELLIX RGB LEDs.</t>
+  </si>
+  <si>
+    <t>In a Class of Its Own</t>
+  </si>
+  <si>
+    <t>&lt;br&gt;CORSAIR DOMINATOR has long been the face of premium, high-performance memory. That heritage and experience has led to this: the most advanced DDR4 memory we’ve ever created.</t>
+  </si>
+  <si>
+    <t>Quality Fit on Your Pocket</t>
+  </si>
+  <si>
+    <t>&amp;bull; Upgrade your notebook or desktop to faster boot-up and shut-down times&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&amp;bull; Faster application load times and increased overall performance over traditional 7200 RPM hard drive&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&amp;bull; Increased reliability, durability and energy efficiency for lower power consumption&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&amp;bull; Easy upgrade and installation&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>&amp;bull; Low power consumption; Increased durability&lt;br&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SanDisk SATA 6.0GB/s 2.5-Inch 7mm Height Solid State Drive </t>
+  </si>
+  <si>
+    <t>Seagate BarraCuda 3.5" 7200RPM Internal Hard Drive</t>
+  </si>
+  <si>
+    <t>Amazing Versatility, Unlocked Dependability</t>
+  </si>
+  <si>
+    <t>Versatile HDDs for all your PC needs bring you industry-leading excellence in&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>personal computing.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>For over 20 years the BarraCuda family has delivered super-reliable storage for the&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>hard drive industry.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Capacities up to 8 TB for desktops, BarraCuda leads the market with the widest&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>range of storage options available.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Advanced Power modes help save energy without sacrificing performance.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>SATA 6 Gb/s interface optimises burst performance.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Seagate Secure&amp;reg;models provide Self-Encrypting Drive (SED) hardware-based data&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>security and deliver an Instant Secure Erase feature for safe, fast and easy drive&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>retirement. They meet NIST 800-88 media sanitization specifications and also support&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>the Trusted Computer Group (TCG) Opal standard.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>THE GAMING SUPERCHARGER</t>
+  </si>
+  <si>
+    <t>Experience the powerful graphics performance of the award-winning NVIDIA Turing architecture with GeForce&amp;reg; GTX 16 Series graphics cards and laptops.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>TURING SHADERS&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Featuring concurrent execution of floating point and integer operations, adaptive shading technology, and a new unified memory architecture, Turing shaders enable greater performance on today&amp;rsquo;s games. Get improved power efficiency over the previous generation for a faster, cooler and quieter gaming experience.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>FRAMES WIN GAMES&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>HIGH-FPS GAMING POWERED BY GEFORCE&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Faster graphics deliver higher frame rates. Higher frame rates let you see things earlier and give you a better chance of hitting your target.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>NVIDIA STUDIO&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>FROM CONCEPT TO COMPLETION. FASTER.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Create without compromise. Studio combines NVIDIA GeForce GPUs with exclusive NVIDIA Studio Drivers designed to supercharge creative applications. Unlock dramatic performance and reliability&amp;mdash;so you can create at the speed of imagination. &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GEFORCE EXPERIENCE&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Capture and share videos, screenshots, and livestreams with friends. Keep your GeForce drivers up to date and optimize your game settings. GeForce Experience&amp;trade; lets you do it all. It's the essential companion to your GeForce graphics cards and laptops.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>HD Gaming and Beyond. Incredible VR.</t>
+  </si>
+  <si>
+    <t>The Radeon RX 580 is a performance-segment graphics card by AMD, launched on April 18th, 2017. Built on the 14 nm process, and based on the Polaris 20 graphics processor, in its Polaris 20 XTX variant, the card supports DirectX 12. This ensures that all modern games will run on Radeon RX 580. The Polaris 20 graphics processor is an average sized chip with a die area of 232 mm&amp;sup2; and 5,700 million transistors. It features 2304 shading units, 144 texture mapping units, and 32 ROPs. AMD has paired 8 GB GDDR5 memory with the Radeon RX 580, which are connected using a 256-bit memory interface. The GPU is operating at a frequency of 1257 MHz, which can be boosted up to 1340 MHz, memory is running at 2000 MHz (8 Gbps effective).&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Being a dual-slot card, the AMD Radeon RX 580 draws power from 1x 8-pin power connector, with power draw rated at 185 W maximum. Display outputs include: 1x HDMI 2.0b, 3x DisplayPort 1.4a. Radeon RX 580 is connected to the rest of the system using a PCI-Express 3.0 x16 interface. The card measures 241 mm in length, and features a dual-slot cooling solution. Its price at launch was 229 US Dollars.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Graphics Processor&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GPU Name&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Polaris 20&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GPU Variant&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Polaris 20 XTX&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>(215-0910038)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Architecture&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GCN 4.0&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Foundry&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GlobalFoundries&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Process Size&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>14 nm&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Transistors&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>5,700 million&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Die Size&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>232 mm&amp;sup2;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GPU Engine Specs&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CUDA Cores&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>768&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Graphics Clock (MHz)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>1290&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Processor Clock (MHz)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>1392&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Graphics Performance&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>high-6747&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Memory Specs&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Memory Clock&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>7 Gbps&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Standard Memory Config&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>4 GB&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Memory Interface&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GDDR5&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Memory Interface Width&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>128-bit&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Memory Bandwidth (GB/sec)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>112&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Feature Support&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supported Technologies&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CUDA, 3D Vision, PhysX, NVIDIA G-SYNC&amp;trade;, Ansel&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Thermal and Power Specs&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Maximum GPU Temperature (in C)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>97&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Maximum Graphics Card Power (W)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>75&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Minimum System Power Requirement (W)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>300&lt;br&gt;</t>
+  </si>
+  <si>
+    <t> Loaded with the industry’s most innovative NVIDIA Game Ready technologies.</t>
+  </si>
+  <si>
+    <t>Ideal for home-computer builders and gamers – Versa H22 Mid-tower gaming chassis</t>
+  </si>
+  <si>
+    <t>Thermaltake Versa H22 Mid-tower chassis&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Ideal for home-computer builders and gamers, with enough space for high-end hardware and expansion. The ample ventilation options, cleanable air filter, and a perforated mesh bezel help to keep the entire system cool and dust-free. Versa H22 combines a manageable frame size with extensive options to customize user&amp;rsquo;s computer or gaming system&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Gaming Design&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Designed for gamer, perforated metal mesh front and top panel to allow quick heat dissipation and rapid air intake for maximum ventilation. The heighten foot-stands at the bottom help to enhance airflow.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Tool-free Installation&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Innovative 5.25&amp;rdquo; &amp;amp; 3.5&amp;rdquo; tool-free drive bay design minumized the hassels of installing/removing. Trio drive bay concept &amp;ldquo;3 + 3 + 3&amp;rdquo;, a perfect ratio for accessory and storage devices.Also, Tool-free mount fan can be clipped on the dust filter.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Handy I/O ports&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The perforated front-top panel has implemented one data transfer SuperSpeed USB 3.0 port along with one standard USB 2.0 port, a HD microphone and headset jacks, to grand direct access when needed.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Optimized Ventilation&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Preinstalled one 120mm rear exhaust fan, optional 2 x 120mm intake fans to optimize system ventilation with dust filter.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Convenient Support&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Pre-mounting holes to support motherboards up to standard ATX and CPU cooler installation, long graphic card also supported as well as Advanced Cable Management and Liquid Cooling System.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Learn more about Compucase HX300&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Model&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Brand&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>HEC&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>HX300&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Details&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Type&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>ATX Mid Tower&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Color&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Black&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Case Material&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>SECC&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>With Power Supply&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>No&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Power Supply Mounted&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Top&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Motherboard Compatibility&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Micro ATX / ATX / Mini-ITX&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Side Panel Window&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Yes&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Expansion&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Internal 3.5&amp;quot; Drive Bays&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>2&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Internal 2.5&amp;quot; Drive Bays&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>3&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Expansion Slots&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>7&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Front Panel Ports&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Front Ports&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>1 x USB 2.0 / 1 x USB 3.0 / Audio&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Dimensions &amp;amp; Weight&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Max PSU Length&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>370mm without ODD210mm with ODD&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Dimensions (H x W x D)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>18.31&amp;quot; x 7.01&amp;quot; x 16.85&amp;quot;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Weight&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>14.00 lbs.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Additional Info&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Features&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Up to 3 x 2.5&amp;quot; and 2 x 3.5&amp;quot; drive bays for the best expansionInternal black coating steel structureFull size ATX M/B application to meet Intel &amp;amp; AMD designInternal design for extended graphic cardThermally-Advantaged ChassisThick 0.6mm Housing12cm rear fan for excellent heat dissipationNew generation power supply holding bayUSB 3.0X1 USB 2.0X1, HD Audio, port in front panel&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Silver Age of Computing</t>
+  </si>
+  <si>
+    <t>The Case You Need</t>
+  </si>
+  <si>
+    <t>The Case You Need&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Space for a high-end build, convenient installation and an elegant design with a big tempered glass meet in this wonderful case.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>A Window to Glory&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>A brushed frontal texture complements MX340&amp;rsquo;s black body to create a design that makes it a worthy heir of the COUGAR line of MX cases. The tempered glass panel on its left side allows you to see your computer&amp;rsquo;s components and gives you an excellent opportunity to install RGB strips and other lighting devices that will make your case overflow with light.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Ready for the Newest Games&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>MX340 is more than looks; it can house a full-fledged high-end gaming computer with a graphics card up to 330 mm and support for six fans and a 360mm water cooling radiator you&amp;rsquo;ll get all the horsepower you need to run the latest games and the cooling your components require.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Extra-Wide&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>MX340&amp;rsquo;s 205mm width ensures there will be plenty of room in the case. This extra space makes installation of components more comfortable and improves the internal airflow. Additionally, the two air filters (top and bottom) can be easily removed to clean them and prevent dust accumulation.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Excellent Cooling&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>With the possibility of installing up to two water cooling radiators and six fans, MX340 allows you to protect your computer&amp;rsquo;s most important components from overheating.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Global Elite Pack</t>
+  </si>
+  <si>
+    <t>Radiant Pack</t>
+  </si>
+  <si>
+    <t>2077 Pack</t>
+  </si>
+  <si>
+    <t>Five Star Pack</t>
+  </si>
+  <si>
+    <t>Counter-Strike: Global Offensive Pack</t>
+  </si>
+  <si>
+    <t>Valorant Pack</t>
+  </si>
+  <si>
+    <t>Cyberpunk 2077 Pack</t>
+  </si>
+  <si>
+    <t>Grand Theft Auto V Pack</t>
+  </si>
+  <si>
+    <t>RAM: 4GB DDR4&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CPU: Ryzen 3 2200G&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>MOBO: A320M&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>STORAGE: 120GB SSD&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GPU: AMD RX 580&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CASE: VERSA H22&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CPU: ATHLON 240GE&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GPU: RADEON VEGA&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>RAM: 16GB DDR4&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CPU: i5-11400F&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>MOBO: B450M&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>STORAGE: 512GB SSD&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GPU: RTX 2070 Super&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CASE: AeroCool Scar&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CPU: Ryzen 5 5600&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>MOBO: H510M-HDV&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GPU: RX 5700 XT&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CASE: Forge M&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Premium 50A Power</t>
+  </si>
+  <si>
+    <t>H510M-HDV&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports 10th Gen Intel&amp;reg; Core&amp;trade; Processors and 11th Gen Intel&amp;reg; Core&amp;trade; Processors&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports DDR4 3200MHz (OC)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>1 x PCIe 4.0 x16, 1 x PCIe 3.0 x1&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Graphics Output Options: HDMI, DVI-D, D-Sub&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>7.1 CH HD Audio (Realtek ALC897 Audio Codec)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>4 x USB 3.2 Gen1 (2 x Rear, 2 x Front)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Fan Xpert 2+: Ensures every fan achieves the best balance of cooling performance and acoustics&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>TUF Protection: SafeSlot, ESD Guards, DDR4 overvoltage protection, Digi+ VRM, and stainless-steel back I/O for long-term reliability&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Military-grade TUF Components: TUF LANGuard, TUF Chokes, TUF Capacitors, and TUF MOSFETs for maximum durability&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Exclusive DTS&amp;reg; Custom audio: Delivers positional cues to stereo headphones, helping you to pinpoint enemies and action&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Aura Sync RGB: Synchronize LED lighting with a vast portfolio of compatible PC gear</t>
+  </si>
+  <si>
+    <t>Tech Awards 2020 Choice</t>
+  </si>
+  <si>
+    <t>AMD B450 Ultra Durable Motherboard with Realtek&amp;reg; GbE LAN with cFosSpeed, PCIe Gen3 x4 M.2, 7-colors RGB LED Strips Support, Anti-Sulfur Resistor, CEC 2019 ready&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports AMD Ryzen&amp;trade; 5000 series / Ryzen&amp;trade; 5000 G-Series/ 3rd Gen Ryzen&amp;trade;/ 2nd Gen Ryzen&amp;trade;/ 1st Gen Ryzen&amp;trade;/ 2nd Gen Ryzen&amp;trade; with Radeon&amp;trade; Vega Graphics/ 1st Gen Ryzen&amp;trade; with Radeon&amp;trade; Vega Graphics/ Athlon&amp;trade; with Radeon&amp;trade; Vega Graphics Processors&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Dual Channel Non-ECC Unbuffered DDR4, 4 DIMMs&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>HDMI, DVI-D Ports for Multiple Display&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Ultra-Fast PCIe Gen3 x4 M.2 with PCIe NVMe &amp;amp; SATA mode support&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>High Quality Audio Capacitors and Audio Noise Guard with LED Trace Path Lighting&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>RGB Fusion supports RGB LED Strips in 7-Colors&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Realtek&amp;reg; Gigabit LAN with cFosSpeed Internet Accelerator Software&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Smart Fan 5 Features 5 Temperature Sensors and 2 Hybrid Fan Headers with FAN STOP&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>APP Center Including EasyTune&amp;trade; and Cloud Station&amp;trade; Utilities</t>
+  </si>
+  <si>
+    <t>Get Ready For AMD Ryzen 5000 Series</t>
+  </si>
+  <si>
+    <t>6Gb/s, USB 3.1 Gen 2&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>OptiMem II: Careful routing of traces and vias, plus ground layer optimizations to preserve signal integrity for improved memory overclocking&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Enhanced power solution: Premium components provide better power efficiency&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>UEFI BIOS: New UEFI options include a search function that allows you to find settings easily&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Industry-leading cooling options: Comprehensive controls for fans and AIO pump, via Fan Xpert 4 or the acclaimed UEFI&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Ultrafast connectivity: Dual native M.2 and NVMe PCIe RAID support for lightning-fast storage speeds&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>5X Protection III: Multiple hardware safeguards for all-round protection</t>
+  </si>
+  <si>
+    <t>CrossFireX Technology Ready</t>
+  </si>
+  <si>
+    <t>B365M Pro4&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports 9th and 8th Gen Intel&amp;reg; Core&amp;trade; processors (Socket 1151)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports DDR4 2666&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>2 PCIe 3.0 x16, 1 PCIe 3.0 x1, 1 M.2 Key E for WiFi&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>AMD Quad CrossFireX&amp;trade;&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>7.1 CH HD Audio (Realtek ALC892 Audio Codec), ELNA Audio Caps&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>6 SATA3, 2 Ultra M.2 (1 x PCIe Gen3 x4 &amp;amp; SATA3, 1 x PCIe Gen3 x4)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>7 USB 3.1 Gen1 (2 Front, 4 Rear, 1 Type-C)&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>REVOLUTIONARY B365 MOTHERBOARDS: Your PC Transformed</t>
+  </si>
+  <si>
+    <t>12M Cache, up to 4.40 GHz</t>
+  </si>
+  <si>
+    <t>The Intel Core i5 11400F is one of the best of the latest 11th Gen desktop CPUs, and it's also one of the cheaper six-core, 12-thread processors you'll find. For half the price of the equivalently core-happy AMD Ryzen 5 5600X(opens in new tab), you're certainly not getting half the gaming performance.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>So yes, it has actually happened; Bizarro CPU World has come to pass. This strange new reality is one where the dominant processor player is AMD, with the most expensive, most powerful chips available to PC gamers, and Intel is the one providing the budget alternatives that punch way above their weight class.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>This is a turnaround of epyc proportions :smug face: &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>That 'F' suffix in the Core i5 11400F denotes a lack of iGPU in the processor package, which is no bad thing for a budget gaming CPU, and normally means a cheaper chip. Times are strange, however, and the Core i5 11400 is exactly the same CPU but with those integrated GPU cores enabled. It should be more expensive, but is actually available for a lot less right now. &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Performance should be practically the same between the two so you can almost pick which of those two versions of the 11400 silicon is cheapest and be happy with your choice. Because the Core i5 11400/F is a great budget gaming CPU.</t>
+  </si>
+  <si>
+    <t>12M Cache, up to 4.90 GHz</t>
+  </si>
+  <si>
+    <t>The Core i7-9700K 3.6 GHz Eight-Core LGA 1151 Processor from Intel is designed for gaming, creating, and productivity. It has a base clock speed of 3.6 GHz and comes with features such as Intel Optane Memory support, Intel Boot Guard, Intel VT-x and Intel VT-d virtualization technologies, Intel TSX-NI, SSE4.1, 4.2, and AVX2 instruction set extensions, and more. With Intel Turbo Boost 2.0 technology, the maximum turbo frequency this processor can achieve is 4.9 GHz. Additionally, this processor features 8 cores with 8 threads in an LGA 1151 socket, has 12MB of cache memory, and 16 PCIe lanes. Having 8 cores allows the processor to run multiple programs simultaneously without slowing down the system, while the 8 threads allow a basic ordered sequence of instructions to be passed through or processed by a single CPU core. This processor also supports up to 128GB of dual-channel 2666 MHz DDR4 RAM and utilizes 9th-generation technology.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Intel designed this processor with support for the integrated Intel UHD Graphics 630 chipset. If you need even more performance, this processor is unlocked, which lets you overclock the processor past its maximum speed. However, this is not recommended, as it will cause the thermals to run at a higher temperature. Lastly, a CPU cooler is not included and will need to be purchased separately. The proper thermal solution for this system is Intel's PCG 2015D.</t>
+  </si>
+  <si>
+    <t>AMD "Zen 3" Core Architecture</t>
+  </si>
+  <si>
+    <t>AMD StoreMI Technology&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>A fast and easy way to expand and accelerate the storage in a desktop PC with an AMD Ryzen&amp;trade; processor.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>AMD &amp;quot;Zen 3&amp;quot; Core Architecture&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The fastest cores in the world for PC gamers.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>AMD Ryzen&amp;trade; VR-Ready Premium&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>For the best possible VR experiences, AMD offers select Ryzen&amp;trade; VR-Ready Premium processors. &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Dominant Gaming and Streaming</t>
+  </si>
+  <si>
+    <t>The AMD Ryzen 7 3700X is the perfect representation of what AMD has tried to do for its mainstream consumers. It not only gets a boost in power over the chip it&amp;rsquo;s replaced but it offers lower power consumption as well.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>And, while it might not quite match the performance of other AMD Ryzen 3rd Generation processors such as the Ryzen 9 3900X, it offers a lot of performance for not a lot of money. Building on the Ryzen 7 2700X&amp;rsquo;s 8-core, 16-thread setup, it is the ideal CPU for a lot of users.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Essentially, the AMD Ryzen 7 3700X has a lot going for it, from its performance and low power consumption to its very reasonable price. It is the best CPU for the masses. And, if you&amp;rsquo;re not convinced, just read the rest of this review to see what this processor is truly made of.</t>
+  </si>
+  <si>
+    <t>Hydro G 650W&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>FSP Hydro G is the world first one PSU break the rule and makes it as a standard to gamers. With three colors, it is easy to create your theme related to VGA cards.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Unique product ID with changeable side stickers for DIY enthusiasts and gamers&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Intelligent fan speed control circuit design with 0dBA function&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Server grade circuit and advanced thermal layout design&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Complies with newest ATX12V &amp;amp; EPS12V standards&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>High efficiency &amp;#8807; 90%&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Active PFC &amp;#8807; 99%&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>High wattages with 80PLUS&amp;reg; gold certification&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Powerful single +12V rail design&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Advanced full modular design with ribbon cables&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>100% Japan-made E-cap&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>SLI and Crossfire ready&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Quiet and long-lasting 135mm FDB fan&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Full protections: OCP, OVP, SCP, OPP, UVP, OTP&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Global safety approved</t>
+  </si>
+  <si>
+    <t>Stylish in DIY Spirit</t>
+  </si>
+  <si>
+    <t>RELIABLE OPERATION, FULLY MODULAR CABLING, AND OPTIMIZED FOR SILENCE.</t>
+  </si>
+  <si>
+    <t>The Corsair RM850 is fully modular and optimized for silence and high efficiency. It&amp;rsquo;s built with low-noise capacitors and transformers, and Zero RPM Fan Mode ensures that the fan doesn&amp;rsquo;t even spin until the power supply is under heavy load. And with a fan that&amp;rsquo;s custom-designed for low noise operation, it&amp;rsquo;s whisper-quiet even when it&amp;rsquo;s pushed hard.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>80 PLUS Gold rated efficiency saves you money on your power bill, and the low-profile black cables are fully modular, so you can enjoy fast, neat builds. And, like all Corsair power supplies, the RM850 is built with high-quality components and is guaranteed to deliver clean, stable, continuous power. Want even more? Connect it to your Corsair Link system (available separately) and you can even monitor fan speed and +12V current directly from your desktop.</t>
+  </si>
+  <si>
+    <t>Power. Performance. PRIME Ultra.</t>
+  </si>
+  <si>
+    <t>NEW IN PRIME ULTRA&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Seasonic has included a PSU tester in the box that will let consumers perform a quick and easy jump start on the power supply. Each PRIME Ultra Series power supply will also ship with a SATA 3.3 adapter to support the &amp;ldquo;Power Disable&amp;rdquo; (PWDIS) feature of the newer, high-capacity hard drives. The inline capacitors on the cables were removed, which takes away the bulkiness inside the system. To maximize flexibility, the 180-degree SATA connectors ensuring more flexibility and easier installation.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>80 PLUS&amp;reg; TITANIUM&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The PRIME Titanium Series achieves the highest level of 80 PLUS&amp;reg; Titanium certification on the market with its 94 % efficiency at 50 % system load.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>MICRO TOLERANCE LOAD REGULATION&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Seasonic&amp;rsquo;s latest design keeps the output voltage within a very tight range, achieving under 0.5 % load regulation. This impressive electrical performance and stability makes this power supply an ideal choice for high-performance systems.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>PREMIUM HYBRID FAN CONTROL&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Seasonic&amp;rsquo;s vast experience in designing the most silent and efficient power supplies on the market was translated into the development of Hybrid Mode; a state-of-the-art fan control that enables users to keep the overall fan noise at the lowest possible level.</t>
+  </si>
+  <si>
+    <t>RTX. IT’S ON.</t>
+  </si>
+  <si>
+    <t>NVIDIA TURING&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>GeForce RTX&amp;trade; graphics cards are powered by the Turing GPU architecture and the RTX platform. This gives you up to 6X the performance of previous-generation graphics cards and brings the power of real-time ray tracing and AI to your favorite games.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>UP TO:&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>6X FASTER PERFORMANCE&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>REAL-TIME RAY TRACING IN GAMES&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>POWERFUL AI&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>ENHANCED GRAPHICS&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>REINVENTING DESIGN&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The GeForce RTX 2060 Founders Edition graphics card features a next-gen 6-phase power supply for maximum overclocking and dual-axial 13-blade fans for ultra-cool and quiet performance.</t>
+  </si>
+  <si>
+    <t>GET SUPER POWERS</t>
+  </si>
+  <si>
+    <t>The NVIDIA&amp;reg; GeForce&amp;reg; RTX 2070 SUPER&amp;trade; is powered by the NVIDIA Turing&amp;trade; architecture and has a superfast GPU with more cores and faster clocks to unleash your creative productivity and gaming dominance. It&amp;rsquo;s time to gear up and get super powers.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>RT CORES&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Dedicated ray tracing hardware delivers over 10 Giga Rays per second&amp;mdash;up to 10X previous generations. This enables real-time ray tracing of objects and environments with physically accurate shadows, reflections, refractions, and global illumination.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>TENSOR CORES&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Artificial intelligence is driving the greatest technology advancement in history, and Turing is bringing it to computer graphics. Experience over 100 TFLOPs of AI-processing horsepower to accelerate gaming performance with NVIDIA DLSS 2.0.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>NEXT-GEN SHADING&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Variable Rate Shading focuses processing power on areas of rich detail, boosting overall performance without affecting perceived image quality. Mesh Shaders advanced geometry processing supports an order of magnitude more objects per-scene, allowing the creation of rich complex worlds.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CONCURRENT PROCESSING&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Simultaneous floating point and integer processing enables Turing GPUs to more efficiently process the compute heavy workloads of modern games.</t>
+  </si>
+  <si>
+    <t>Bend the rules</t>
+  </si>
+  <si>
+    <t>Designed from the ground up for exceptional 1440p performance and high-fidelity gaming.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Great gaming experiences are created by bending the rules. The all new RDNA powered Radeon RX 5700 XT for exceptional performance and High-fidelity gaming. Take control with Radeon RX 5700 XT and experience powerful, accelerated gaming customized for you.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Game Fidelity Accelerated&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>High-performance RDNA architecture was engineered to greatly enhance features like Radeon Image Sharpening, FidelityFX, and VR technologies3 for maximum performance and jaw-dropping gaming experiences.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Immersive Gaming Dynamics&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Get the competitive advantage with dramatically reduced input lag with Radeon Anti-Lag, get stutter-free, tear-free gaming with AMD Radeon FreeSync1 technology, and the latest Radeon Software for incredibly responsive and insanely immersive gameplay.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The New Gaming RDNA Architecture&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Radeon RX 5700 XT features new compute units, new instructions better suited for visual effects, and multi-level cache hierarchy for greatly reduced latency and highly responsive gaming.</t>
+  </si>
+  <si>
+    <t>Airflow Optimized</t>
+  </si>
+  <si>
+    <t>Tecware has launched its new Forge M case, a compact micro-ATX chassis with a ton of features and a really attractive price. At just S$55 on Lazada, the Forge M is shaping up to be a huge steal for system builders, in typical Tecware style. &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>This is a case built around high air flow, and it sports a polygonal mesh front that can hold three 120mm fans. There's room for two more 120mm fans at the top as well, and one more 120mm mount at the rear. The Forge M ships pre-installed with four Orbis F1 addressable RGB fans at the front and back, so you don't even have to shell out more to buy your own. There's a built-in controller hub too, which lets you toggle between 62 different lighting modes via the dedicated LED button. Alternatively, the fans can be plugged into the RGB ecosystems of all the major motherboard manufacturers, including ASUS, ASRock, MSI, and Gigabyte. &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>There are helpful magnetic dust filters at the top and bottom, which should make for easy removal and cleaning. The hinged tempered glass side also makes it easy to access the case interior and tidy things up, while the PSU shroud of the bottom can help hide the bulk of your cables. &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Tecware has made room for two 2.5-inch SSDs to be mounted beside the motherboard tray, and there's a removable drive tray at the bottom that can hold two more 3.5-inch HDDs or SSDs. &lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Elsewhere, the case will hold up to a 180mm long power supply unit, in addition to graphics cards up to 340mm long and CPU coolers 160mm tall.</t>
+  </si>
+  <si>
+    <t>The Scar You'll never Want to Miss</t>
+  </si>
+  <si>
+    <t>RGB MID TOWER CASE&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>High-performance mid tower case with a stylish RGB LED design on the top and front panel. Comes with a full tempered glass side panel to showcase the inside of your rig. Air vents on the sides of the top and front panel provide superior air flow and ventilation.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Bring your case to life with 15 lighting modes: 8 RGB flow and 7 static color modes. Conveniently located LED control switch allows you to adjust your lighting effects to suit your unique style and mood.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Stylish RGB LED design on the top and front panel&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Access 15 preset lighting modes via conveniently located LED control button&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Full tempered glass side panel to showcase the inside of your rig&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Air vents on the top and front panel provide superior air flow and circulation&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Dual chamber design for improved ventilation&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports CPU coolers up to 178mm&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Supports high-end graphics cards up to 382mm</t>
+  </si>
+  <si>
+    <t>Extraordinary Transparent View</t>
+  </si>
+  <si>
+    <t>Extreme Flexibility&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>MX330 has seven PCI slots, allowing you to install multiple 350mm graphics cards to give you all the graphic horsepower your games require. You also get the ability to install up to two 2.5&amp;quot; SSD and 3.5&amp;quot; HDDs (for a maximum of four storage devices) to satisfy your storage needs.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Outstanding Airflow&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Support for a 240mm front radiator and five fans make good cooling for high-end components possible in MX330, which is made even better by a convenient design that eases cleaning, with detachable dust filters on the front, top and bottom covers. The MX330-X takes this one step further, expanding the support up to six fans.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>Minimalist Beauty&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>The case's PSU and 3.5&amp;rdquo; bay cover provide a clean view of your case and keep the airflow strong.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>DOMINATOR PLATINUM RGB DDR4 3200MHZ 2X</t>
+  </si>
+  <si>
+    <t>CORSAIR DOMINATOR&amp;reg; PLATINUM RGB DDR4 Memory redefines premium DDR4 memory, with superior aluminum craftsmanship, tightly screened high-frequency memory chips and 12 ultra-bright, individually addressable CAPELLIX RGB LEDs.&lt;br&gt;</t>
+  </si>
+  <si>
+    <t>CORSAIR DOMINATOR has long been the face of premium, high-performance memory. That heritage and experience has led to this: the most advanced DDR4 memory we&amp;rsquo;ve ever created.</t>
+  </si>
+  <si>
+    <t>16M Cache, up to 5.00 GHz</t>
+  </si>
+  <si>
+    <t>19.25M Cache, 3.50 GHz</t>
+  </si>
+  <si>
+    <t>Built for You. Designed to Win.</t>
+  </si>
+  <si>
+    <t>Heavy Metal for Enthusiasts.</t>
+  </si>
+  <si>
+    <t>Intel LGA-1151 mATX motherboard with Aura Sync RGB header</t>
+  </si>
+  <si>
+    <t>Intel H310 Ultra Durable motherboard with Intel GbE LAN with cFosSpeed</t>
+  </si>
+  <si>
+    <t>Tough as Steel. True Legend</t>
+  </si>
+  <si>
+    <t>Ultra Durable Motherboard</t>
+  </si>
+  <si>
+    <t>Business Elegance</t>
+  </si>
+  <si>
+    <t>11 Power Phase Design</t>
+  </si>
+  <si>
+    <t>Overwhelming Power. Indisputable Supremacy. Unrestrained Potential.</t>
+  </si>
+  <si>
+    <t>Titanium Certified</t>
+  </si>
+  <si>
+    <t>Tough Power. Enhanced</t>
+  </si>
+  <si>
+    <t>New Generation of Design</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>The Ultimate Play</t>
+  </si>
+  <si>
+    <t>link to head</t>
+  </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>Cheap, and Quality</t>
+  </si>
+  <si>
+    <t>Set New Standards</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=17</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=21</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=20</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=22</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=23</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=24</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=25</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=26</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=27</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=30</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=31</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=32</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=28</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=29</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=33</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=34</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=35</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=63</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=36</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=37</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=38</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=39</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=40</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=41</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=42</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=43</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=44</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=49</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=50</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=51</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=52</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=53</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=54</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=55</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=56</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=57</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=61</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=58</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=59</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=60</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=64</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=65</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=66</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=62</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=67</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=68</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=69</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=70</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=71</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=72</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=73</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=74</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=75</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=76</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=77</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=78</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=79</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=80</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=81</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=90</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=91</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=82</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=83</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=84</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=85</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=86</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=87</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=88</t>
+  </si>
+  <si>
+    <t>https://pcbuilderbot.000webhostapp.com/product.php?id=89</t>
   </si>
 </sst>
 </file>
@@ -578,7 +1869,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -645,6 +1936,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -659,7 +1956,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -685,6 +1982,29 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1000,17 +2320,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946F4086-FA9B-4743-857D-8E3DB7EB1ED6}">
-  <dimension ref="B2:T47"/>
+  <dimension ref="A2:T146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="20.77734375" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" customWidth="1"/>
-    <col min="5" max="5" width="22.5546875" customWidth="1"/>
+    <col min="5" max="5" width="34" customWidth="1"/>
     <col min="7" max="7" width="20.21875" customWidth="1"/>
     <col min="8" max="8" width="18.5546875" customWidth="1"/>
     <col min="9" max="9" width="21.88671875" customWidth="1"/>
@@ -1029,7 +2349,10 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>123</v>
+      </c>
+      <c r="F3" t="s">
+        <v>527</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
@@ -1037,7 +2360,7 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D4">
         <v>11500</v>
@@ -1045,13 +2368,16 @@
       <c r="E4">
         <v>12000</v>
       </c>
+      <c r="F4" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D5">
         <v>5500</v>
@@ -1059,13 +2385,16 @@
       <c r="E5">
         <v>6000</v>
       </c>
+      <c r="F5" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D6">
         <v>3930</v>
@@ -1073,19 +2402,25 @@
       <c r="E6">
         <v>4200</v>
       </c>
+      <c r="F6" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D7">
         <v>7200</v>
       </c>
       <c r="E7">
         <v>7500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
@@ -1098,7 +2433,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D10">
         <v>4800</v>
@@ -1110,7 +2445,7 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I10">
         <v>7800</v>
@@ -1119,10 +2454,10 @@
         <v>8000</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="N10">
         <v>2600</v>
@@ -1131,10 +2466,10 @@
         <v>3000</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="S10">
         <v>4300</v>
@@ -1144,508 +2479,2405 @@
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>532</v>
+      </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M11" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="Q11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="R11" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>134</v>
+        <v>130</v>
+      </c>
+      <c r="G12" t="s">
+        <v>533</v>
       </c>
       <c r="H12" t="s">
-        <v>144</v>
+        <v>140</v>
+      </c>
+      <c r="L12" t="s">
+        <v>534</v>
       </c>
       <c r="M12" t="s">
-        <v>157</v>
+        <v>153</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>535</v>
       </c>
       <c r="R12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="H13" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="M13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="R13" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H14" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="M14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="R14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H15" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="R15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="H16" t="s">
+        <v>133</v>
+      </c>
+      <c r="M16" t="s">
+        <v>157</v>
+      </c>
+      <c r="R16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="H17" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="H18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C20" t="s">
         <v>138</v>
       </c>
-      <c r="H16" t="s">
-        <v>137</v>
-      </c>
-      <c r="M16" t="s">
-        <v>161</v>
-      </c>
-      <c r="R16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="H20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H21" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C18" t="s">
-        <v>140</v>
-      </c>
-      <c r="H18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C19" t="s">
-        <v>141</v>
-      </c>
-      <c r="H19" t="s">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>142</v>
-      </c>
-      <c r="H20" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H21" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H22" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>115</v>
+      </c>
       <c r="B24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="E24" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>536</v>
+      </c>
       <c r="B25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>537</v>
+      </c>
       <c r="B26" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26">
+        <v>1500</v>
+      </c>
+      <c r="E26">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>538</v>
+      </c>
       <c r="B27" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>3000</v>
+      </c>
+      <c r="E27">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>6000</v>
+      </c>
+      <c r="E28">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="4" t="s">
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30">
+        <v>6300</v>
+      </c>
+      <c r="E30">
+        <v>6500</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I30">
+        <v>3800</v>
+      </c>
+      <c r="J30">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>173</v>
+      </c>
+      <c r="C31" t="s">
+        <v>163</v>
+      </c>
+      <c r="G31" t="s">
+        <v>180</v>
+      </c>
+      <c r="H31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>539</v>
+      </c>
+      <c r="C32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" t="s">
+        <v>540</v>
+      </c>
+      <c r="H32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>165</v>
+      </c>
+      <c r="H34" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>163</v>
+      </c>
+      <c r="H35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>166</v>
+      </c>
+      <c r="H36" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="H37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>163</v>
+      </c>
+      <c r="H39" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>168</v>
+      </c>
+      <c r="H40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>163</v>
+      </c>
+      <c r="H41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>169</v>
+      </c>
+      <c r="H42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>163</v>
+      </c>
+      <c r="H43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" t="s">
+        <v>187</v>
+      </c>
+      <c r="I51" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="J51" t="s">
+        <v>193</v>
+      </c>
+      <c r="K51" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>541</v>
+      </c>
+      <c r="B52" s="16">
+        <v>124</v>
+      </c>
+      <c r="C52" t="s">
+        <v>186</v>
+      </c>
+      <c r="D52" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52">
+        <v>1800</v>
+      </c>
+      <c r="F52">
+        <v>2000</v>
+      </c>
+      <c r="H52" t="s">
+        <v>545</v>
+      </c>
+      <c r="I52" s="16">
+        <v>1024</v>
+      </c>
+      <c r="J52" t="s">
+        <v>194</v>
+      </c>
+      <c r="K52" t="s">
+        <v>196</v>
+      </c>
+      <c r="L52">
+        <v>2600</v>
+      </c>
+      <c r="M52">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>542</v>
+      </c>
+      <c r="B53" s="16">
+        <v>250</v>
+      </c>
+      <c r="D53" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53">
+        <v>2800</v>
+      </c>
+      <c r="F53">
+        <v>3000</v>
+      </c>
+      <c r="H53" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="I53" s="16">
+        <v>2048</v>
+      </c>
+      <c r="K53" t="s">
+        <v>163</v>
+      </c>
+      <c r="L53">
+        <v>3200</v>
+      </c>
+      <c r="M53">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>543</v>
+      </c>
+      <c r="B54" s="16">
+        <v>500</v>
+      </c>
+      <c r="D54" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54">
+        <v>3800</v>
+      </c>
+      <c r="F54">
+        <v>4000</v>
+      </c>
+      <c r="H54" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="I54" s="16">
+        <v>4096</v>
+      </c>
+      <c r="K54" t="s">
+        <v>197</v>
+      </c>
+      <c r="L54">
+        <v>4400</v>
+      </c>
+      <c r="M54">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>544</v>
+      </c>
+      <c r="B55" s="16">
+        <v>1024</v>
+      </c>
+      <c r="C55" s="16"/>
+      <c r="D55" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55">
+        <v>4800</v>
+      </c>
+      <c r="F55">
+        <v>5000</v>
+      </c>
+      <c r="K55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+      <c r="K56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K58" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K59" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K61" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K62" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K63" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K64" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K65" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K66" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K67" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="K68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B71" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D33" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="16">
-        <v>124</v>
-      </c>
-      <c r="C34" s="16">
-        <v>1024</v>
-      </c>
-      <c r="D34" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="16">
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>118</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72">
+        <v>14300</v>
+      </c>
+      <c r="E72">
+        <v>14800</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" t="s">
+        <v>220</v>
+      </c>
+      <c r="I72">
+        <v>11800</v>
+      </c>
+      <c r="J72">
+        <v>12200</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M72" t="s">
+        <v>238</v>
+      </c>
+      <c r="O72">
+        <v>7500</v>
+      </c>
+      <c r="P72">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" t="s">
+        <v>209</v>
+      </c>
+      <c r="G73" t="s">
+        <v>219</v>
+      </c>
+      <c r="H73" t="s">
+        <v>221</v>
+      </c>
+      <c r="L73" t="s">
+        <v>268</v>
+      </c>
+      <c r="M73" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B74" s="25" t="s">
+        <v>548</v>
+      </c>
+      <c r="C74" t="s">
+        <v>210</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>549</v>
+      </c>
+      <c r="H74" t="s">
+        <v>163</v>
+      </c>
+      <c r="L74" s="25" t="s">
+        <v>550</v>
+      </c>
+      <c r="M74" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C75" t="s">
+        <v>163</v>
+      </c>
+      <c r="H75" t="s">
+        <v>222</v>
+      </c>
+      <c r="M75" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>211</v>
+      </c>
+      <c r="H76" t="s">
+        <v>223</v>
+      </c>
+      <c r="M76" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>212</v>
+      </c>
+      <c r="H77" t="s">
+        <v>224</v>
+      </c>
+      <c r="M77" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C78" t="s">
+        <v>213</v>
+      </c>
+      <c r="H78" t="s">
+        <v>163</v>
+      </c>
+      <c r="M78" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C79" t="s">
+        <v>163</v>
+      </c>
+      <c r="H79" t="s">
+        <v>225</v>
+      </c>
+      <c r="M79" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C80" t="s">
+        <v>214</v>
+      </c>
+      <c r="H80" t="s">
+        <v>226</v>
+      </c>
+      <c r="M80" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C81" t="s">
+        <v>215</v>
+      </c>
+      <c r="H81" t="s">
+        <v>227</v>
+      </c>
+      <c r="M81" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C82" t="s">
+        <v>216</v>
+      </c>
+      <c r="H82" t="s">
+        <v>163</v>
+      </c>
+      <c r="M82" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C83" t="s">
+        <v>163</v>
+      </c>
+      <c r="H83" t="s">
+        <v>228</v>
+      </c>
+      <c r="M83" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C84" t="s">
+        <v>217</v>
+      </c>
+      <c r="H84" t="s">
+        <v>229</v>
+      </c>
+      <c r="M84" t="s">
         <v>250</v>
       </c>
-      <c r="C35" s="16">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="16">
-        <v>500</v>
-      </c>
-      <c r="C36" s="16">
-        <v>4096</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="16">
-        <v>1024</v>
-      </c>
-      <c r="C37" s="16"/>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C85" t="s">
+        <v>218</v>
+      </c>
+      <c r="H85" t="s">
+        <v>163</v>
+      </c>
+      <c r="M85" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H86" t="s">
+        <v>230</v>
+      </c>
+      <c r="M86" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H87" t="s">
+        <v>231</v>
+      </c>
+      <c r="M87" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H88" t="s">
+        <v>163</v>
+      </c>
+      <c r="M88" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H89" t="s">
+        <v>232</v>
+      </c>
+      <c r="M89" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H90" t="s">
+        <v>233</v>
+      </c>
+      <c r="M90" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H91" t="s">
+        <v>163</v>
+      </c>
+      <c r="M91" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H92" t="s">
+        <v>234</v>
+      </c>
+      <c r="M92" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H93" t="s">
+        <v>235</v>
+      </c>
+      <c r="M93" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H94" t="s">
+        <v>163</v>
+      </c>
+      <c r="M94" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H95" t="s">
+        <v>236</v>
+      </c>
+      <c r="M95" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H96" t="s">
+        <v>237</v>
+      </c>
+      <c r="M96" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H97" t="s">
+        <v>163</v>
+      </c>
+      <c r="M97" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M98" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M99" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M100" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M101" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="M102" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B104" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="5" t="s">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>119</v>
+      </c>
+      <c r="B105" s="6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="6" t="s">
+      <c r="C105" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="D105">
+        <v>2600</v>
+      </c>
+      <c r="E105">
+        <v>2900</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C45" t="s">
+      <c r="H105" t="s">
+        <v>282</v>
+      </c>
+      <c r="I105">
+        <v>2300</v>
+      </c>
+      <c r="J105">
+        <v>2600</v>
+      </c>
+      <c r="L105" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C46" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="s">
-        <v>30</v>
+      <c r="M105" t="s">
+        <v>324</v>
+      </c>
+      <c r="O105">
+        <v>5300</v>
+      </c>
+      <c r="P105">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>269</v>
+      </c>
+      <c r="C106" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="G106" t="s">
+        <v>322</v>
+      </c>
+      <c r="H106" t="s">
+        <v>283</v>
+      </c>
+      <c r="L106" t="s">
+        <v>323</v>
+      </c>
+      <c r="M106" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B107" s="25" t="s">
+        <v>551</v>
+      </c>
+      <c r="C107" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="G107" s="25" t="s">
+        <v>552</v>
+      </c>
+      <c r="H107" t="s">
+        <v>284</v>
+      </c>
+      <c r="L107" s="25" t="s">
+        <v>553</v>
+      </c>
+      <c r="M107" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C108" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H108" t="s">
+        <v>285</v>
+      </c>
+      <c r="M108" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C109" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="H109" t="s">
+        <v>283</v>
+      </c>
+      <c r="M109" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C110" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="H110" t="s">
+        <v>286</v>
+      </c>
+      <c r="M110" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C111" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H111" t="s">
+        <v>287</v>
+      </c>
+      <c r="M111" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="C112" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H112" t="s">
+        <v>288</v>
+      </c>
+      <c r="M112" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="113" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C113" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="H113" t="s">
+        <v>289</v>
+      </c>
+      <c r="M113" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="114" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C114" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="H114" t="s">
+        <v>290</v>
+      </c>
+      <c r="M114" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="115" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C115" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H115" t="s">
+        <v>291</v>
+      </c>
+      <c r="M115" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="116" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C116" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H116" t="s">
+        <v>292</v>
+      </c>
+      <c r="M116" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C117" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="H117" t="s">
+        <v>293</v>
+      </c>
+      <c r="M117" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="118" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C118" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="H118" t="s">
+        <v>294</v>
+      </c>
+      <c r="M118" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="119" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C119" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H119" t="s">
+        <v>295</v>
+      </c>
+      <c r="M119" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="120" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C120" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="H120" t="s">
+        <v>296</v>
+      </c>
+      <c r="M120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C121" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="H121" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="122" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C122" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H122" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C123" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="H123" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="124" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C124" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="H124" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="125" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C125" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H125" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="126" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H126" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="127" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H127" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="128" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H128" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H129" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H130" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H131" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H132" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H133" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H134" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H135" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H136" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H137" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H138" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H139" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H140" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="141" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H141" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="142" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H142" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="143" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H143" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="144" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H144" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="145" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H145" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="146" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H146" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H53" r:id="rId1" xr:uid="{45FD0B0F-B4AE-44BA-A042-B7208D91F9FA}"/>
+    <hyperlink ref="H54" r:id="rId2" xr:uid="{64CF462C-EEA3-4BAA-9E20-85A3C2289C9B}"/>
+    <hyperlink ref="B74" r:id="rId3" xr:uid="{D521FC78-33EE-4860-BF8B-0FC052EDFA6E}"/>
+    <hyperlink ref="G74" r:id="rId4" xr:uid="{464393E1-C564-4CE3-A6AC-B1E0DF6146B7}"/>
+    <hyperlink ref="L74" r:id="rId5" xr:uid="{D173CB17-5F5D-4A51-9F53-BCE1B90AEED4}"/>
+    <hyperlink ref="B107" r:id="rId6" xr:uid="{2B64E073-1253-4307-A348-D02A5EB0C66E}"/>
+    <hyperlink ref="G107" r:id="rId7" xr:uid="{63238899-A414-42AB-B469-9031311911FD}"/>
+    <hyperlink ref="L107" r:id="rId8" xr:uid="{D5C32CC9-C280-4782-9C27-0A21A8086F0B}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71F45F2D-8765-4F01-A834-7393D28E5A84}">
-  <dimension ref="B2:D38"/>
+  <dimension ref="A2:Y110"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="16" style="21" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="14" style="21" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="17" style="21" customWidth="1"/>
+    <col min="8" max="8" width="17.109375" style="21" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="21"/>
+    <col min="12" max="12" width="17.77734375" style="21" customWidth="1"/>
+    <col min="13" max="16" width="8.88671875" style="21"/>
+    <col min="17" max="17" width="19.88671875" style="21" customWidth="1"/>
+    <col min="18" max="21" width="8.88671875" style="21"/>
+    <col min="22" max="22" width="18.77734375" style="21" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="20" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="7" t="s">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>403</v>
+      </c>
+      <c r="D3" s="21">
+        <v>10000</v>
+      </c>
+      <c r="E3" s="21">
+        <v>10350</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="I3" s="21">
+        <v>22700</v>
+      </c>
+      <c r="J3" s="21">
+        <v>23000</v>
+      </c>
+      <c r="L3" s="22" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="M3" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="N3" s="21">
+        <v>18200</v>
+      </c>
+      <c r="O3" s="21">
+        <v>18400</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="R3" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="T3" s="21">
+        <v>19800</v>
+      </c>
+      <c r="U3" s="21">
+        <v>20200</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B4" s="21" t="s">
+        <v>402</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L4" s="21" t="s">
+        <v>411</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q4" s="21" t="s">
+        <v>418</v>
+      </c>
+      <c r="R4" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B5" s="27" t="s">
+        <v>554</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>404</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>555</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>410</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>556</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q5" s="27" t="s">
+        <v>557</v>
+      </c>
+      <c r="R5" s="21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C6" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M6" s="21" t="s">
+        <v>415</v>
+      </c>
+      <c r="R6" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C7" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="M7" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="R7" s="21" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C8" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C9" s="21" t="s">
+        <v>406</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C10" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="C11" s="21" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B25" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="D25" s="21">
+        <v>4500</v>
+      </c>
+      <c r="E25" s="21">
+        <v>5000</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="H25" s="21">
+        <v>5000</v>
+      </c>
+      <c r="I25" s="21">
+        <v>5200</v>
+      </c>
+      <c r="L25" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M25" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="N25" s="21">
+        <v>4400</v>
+      </c>
+      <c r="O25" s="21">
+        <v>4800</v>
+      </c>
+      <c r="Q25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="R25" s="21" t="s">
+        <v>385</v>
+      </c>
+      <c r="S25" s="21">
+        <v>8800</v>
+      </c>
+      <c r="T25" s="21">
+        <v>9200</v>
+      </c>
+      <c r="V25" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="W25" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="X25" s="21">
+        <v>4300</v>
+      </c>
+      <c r="Y25" s="21">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>362</v>
+      </c>
+      <c r="G26" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>368</v>
+      </c>
+      <c r="L26" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="M26" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q26" s="21" t="s">
+        <v>392</v>
+      </c>
+      <c r="R26" s="21" t="s">
+        <v>386</v>
+      </c>
+      <c r="V26" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="W26" s="21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B27" s="27" t="s">
+        <v>558</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>559</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="L27" s="27" t="s">
+        <v>560</v>
+      </c>
+      <c r="M27" s="21" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q27" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="R27" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="V27" s="27" t="s">
+        <v>562</v>
+      </c>
+      <c r="W27" s="21" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="28" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C28" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="M28" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="R28" s="21" t="s">
+        <v>388</v>
+      </c>
+      <c r="W28" s="21" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C29" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="M29" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="R29" s="21" t="s">
+        <v>389</v>
+      </c>
+      <c r="W29" s="21" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C30" s="21" t="s">
+        <v>366</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="M30" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="R30" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="W30" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C31" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="M31" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="R31" s="21" t="s">
+        <v>391</v>
+      </c>
+      <c r="W31" s="21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="C32" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="M32" s="21" t="s">
+        <v>380</v>
+      </c>
+      <c r="W32" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="C33" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="M33" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="W33" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M34" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="W34" s="21" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M35" s="21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B46" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="21" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>537</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C47" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="21" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>538</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="21" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B51" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B52" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>422</v>
+      </c>
+      <c r="D52" s="21">
+        <v>3700</v>
+      </c>
+      <c r="E52" s="21">
+        <v>3900</v>
+      </c>
+      <c r="G52" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>440</v>
+      </c>
+      <c r="I52" s="21">
+        <v>7300</v>
+      </c>
+      <c r="J52" s="21">
+        <v>7600</v>
+      </c>
+      <c r="L52" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M52" s="21" t="s">
+        <v>443</v>
+      </c>
+      <c r="N52" s="21">
+        <v>8400</v>
+      </c>
+      <c r="O52" s="21">
+        <v>8800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B53" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="G53" s="21" t="s">
+        <v>439</v>
+      </c>
+      <c r="H53" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L53" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="M53" s="21" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B54" s="27" t="s">
+        <v>564</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>424</v>
+      </c>
+      <c r="G54" s="27" t="s">
+        <v>565</v>
+      </c>
+      <c r="H54" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="L54" s="27" t="s">
+        <v>566</v>
+      </c>
+      <c r="M54" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C55" s="21" t="s">
+        <v>425</v>
+      </c>
+      <c r="M55" s="21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C56" s="21" t="s">
+        <v>426</v>
+      </c>
+      <c r="M56" s="21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C57" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="M57" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C58" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="M58" s="21" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C59" s="21" t="s">
+        <v>429</v>
+      </c>
+      <c r="M59" s="21" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C60" s="21" t="s">
+        <v>430</v>
+      </c>
+      <c r="M60" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C61" s="21" t="s">
+        <v>431</v>
+      </c>
+      <c r="M61" s="21" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C62" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="M62" s="21" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C63" s="21" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C64" s="21" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C65" s="21" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C66" s="21" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C67" s="21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B72" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>543</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C73" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D73" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>544</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C75" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B77" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="21" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B78" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D78" s="21">
+        <v>27000</v>
+      </c>
+      <c r="E78" s="21">
+        <v>30000</v>
+      </c>
+      <c r="G78" s="24" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B9" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B13" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
+      <c r="H78" s="21" t="s">
+        <v>462</v>
+      </c>
+      <c r="I78" s="21">
+        <v>30000</v>
+      </c>
+      <c r="J78" s="21">
+        <v>32000</v>
+      </c>
+      <c r="L78" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="M78" s="21" t="s">
+        <v>472</v>
+      </c>
+      <c r="N78" s="21">
+        <v>27000</v>
+      </c>
+      <c r="O78" s="21">
+        <v>29000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B79" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="C79" s="21" t="s">
+        <v>453</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>461</v>
+      </c>
+      <c r="H79" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L79" s="21" t="s">
+        <v>471</v>
+      </c>
+      <c r="M79" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B80" s="27" t="s">
+        <v>567</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G80" s="27" t="s">
+        <v>568</v>
+      </c>
+      <c r="H80" s="21" t="s">
+        <v>463</v>
+      </c>
+      <c r="L80" s="27" t="s">
+        <v>569</v>
+      </c>
+      <c r="M80" s="21" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C81" s="21" t="s">
+        <v>454</v>
+      </c>
+      <c r="H81" s="21" t="s">
+        <v>464</v>
+      </c>
+      <c r="M81" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C82" s="21" t="s">
+        <v>455</v>
+      </c>
+      <c r="H82" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M82" s="21" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C83" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="H83" s="21" t="s">
+        <v>465</v>
+      </c>
+      <c r="M83" s="21" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C84" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="H84" s="21" t="s">
+        <v>466</v>
+      </c>
+      <c r="M84" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C85" s="21" t="s">
+        <v>458</v>
+      </c>
+      <c r="H85" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M85" s="21" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C86" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H86" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="M86" s="21" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C87" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="H87" s="21" t="s">
+        <v>468</v>
+      </c>
+      <c r="M87" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C88" s="21" t="s">
+        <v>460</v>
+      </c>
+      <c r="H88" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M88" s="21" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H89" s="21" t="s">
+        <v>469</v>
+      </c>
+      <c r="M89" s="21" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="H90" s="21" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B98" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B99" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="C21" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
+      <c r="C99" s="21" t="s">
+        <v>481</v>
+      </c>
+      <c r="D99" s="21">
+        <v>2700</v>
+      </c>
+      <c r="E99" s="21">
+        <v>3000</v>
+      </c>
+      <c r="G99" s="24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
+      <c r="H99" s="21" t="s">
+        <v>487</v>
+      </c>
+      <c r="I99" s="21">
+        <v>4300</v>
+      </c>
+      <c r="J99" s="21">
+        <v>4900</v>
+      </c>
+      <c r="L99" s="24" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C35" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>51</v>
+      <c r="M99" s="21" t="s">
+        <v>498</v>
+      </c>
+      <c r="N99" s="21">
+        <v>2800</v>
+      </c>
+      <c r="O99" s="21">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B100" s="21" t="s">
+        <v>480</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G100" s="21" t="s">
+        <v>486</v>
+      </c>
+      <c r="H100" s="21" t="s">
+        <v>488</v>
+      </c>
+      <c r="L100" s="21" t="s">
+        <v>497</v>
+      </c>
+      <c r="M100" s="21" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B101" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>482</v>
+      </c>
+      <c r="G101" s="27" t="s">
+        <v>572</v>
+      </c>
+      <c r="H101" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L101" s="27" t="s">
+        <v>573</v>
+      </c>
+      <c r="M101" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C102" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H102" s="21" t="s">
+        <v>489</v>
+      </c>
+      <c r="M102" s="21" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C103" s="21" t="s">
+        <v>483</v>
+      </c>
+      <c r="H103" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="M103" s="21" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C104" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H104" s="21" t="s">
+        <v>490</v>
+      </c>
+      <c r="M104" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C105" s="21" t="s">
+        <v>484</v>
+      </c>
+      <c r="H105" s="21" t="s">
+        <v>491</v>
+      </c>
+      <c r="M105" s="21" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C106" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="H106" s="21" t="s">
+        <v>492</v>
+      </c>
+      <c r="M106" s="21" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C107" s="21" t="s">
+        <v>485</v>
+      </c>
+      <c r="H107" s="21" t="s">
+        <v>493</v>
+      </c>
+      <c r="M107" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H108" s="21" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H109" s="21" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="H110" s="21" t="s">
+        <v>496</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{8450A511-EB5C-4F1E-B5E0-55FA0E9D45AE}"/>
+    <hyperlink ref="G5" r:id="rId2" xr:uid="{275A61F9-BCE2-403D-9F50-F08ED89B81D9}"/>
+    <hyperlink ref="L5" r:id="rId3" xr:uid="{C19BB259-DDDB-4450-A4D6-F06EA089B4D3}"/>
+    <hyperlink ref="Q5" r:id="rId4" xr:uid="{9CC1AB4B-27BA-4CFD-970A-05057120A721}"/>
+    <hyperlink ref="B27" r:id="rId5" xr:uid="{A006A1AC-89AA-49BC-ADA5-57B3E4E2978F}"/>
+    <hyperlink ref="G27" r:id="rId6" xr:uid="{29C68DEA-6102-4D74-80DB-04C1850A1D98}"/>
+    <hyperlink ref="L27" r:id="rId7" xr:uid="{BE7F8F57-5EE0-4BF6-B099-9F1123F38B58}"/>
+    <hyperlink ref="Q27" r:id="rId8" xr:uid="{232E8925-3179-4830-8458-2762B2B6D789}"/>
+    <hyperlink ref="V27" r:id="rId9" xr:uid="{A53DFCBB-0518-48A5-B5C3-07FC0EF49E91}"/>
+    <hyperlink ref="A49" r:id="rId10" xr:uid="{A087AA97-F374-4905-AD91-FC6A38BE5925}"/>
+    <hyperlink ref="B54" r:id="rId11" xr:uid="{DC0C03B8-E632-489C-973C-0EBCB89C99C5}"/>
+    <hyperlink ref="G54" r:id="rId12" xr:uid="{92D46978-EE69-40C8-A6CD-5559A5B9C388}"/>
+    <hyperlink ref="L54" r:id="rId13" xr:uid="{E237439E-294D-4ED7-9109-E6A01B0186C3}"/>
+    <hyperlink ref="B80" r:id="rId14" xr:uid="{CC4A1235-0DC0-4E63-AAC9-FA618E3EFB8F}"/>
+    <hyperlink ref="G80" r:id="rId15" xr:uid="{BDCC3DEE-45D5-49A1-99DA-E9C425609668}"/>
+    <hyperlink ref="L80" r:id="rId16" xr:uid="{D7960780-0BE3-4661-ACD4-9EB00A9468BA}"/>
+    <hyperlink ref="D74" r:id="rId17" xr:uid="{CE521199-3C87-47FD-BC7F-8E693EE59D6A}"/>
+    <hyperlink ref="D75" r:id="rId18" xr:uid="{D9255B08-B30C-4559-B071-FE2039528E64}"/>
+    <hyperlink ref="A75" r:id="rId19" xr:uid="{2AA1F5EB-6831-435A-A9D3-77A72C65E9F4}"/>
+    <hyperlink ref="B101" r:id="rId20" xr:uid="{2E0B85EA-2799-4C12-9864-B601FD5EBDDC}"/>
+    <hyperlink ref="G101" r:id="rId21" xr:uid="{C09A4127-78C5-4246-B118-B3BF7C82C9A8}"/>
+    <hyperlink ref="L101" r:id="rId22" xr:uid="{BF955229-327B-4E74-86E3-EEC1A45AF1BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEDCE65-5595-4ED7-92D6-BCE023FF5B2E}">
-  <dimension ref="B2:D42"/>
+  <dimension ref="A2:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,347 +4891,933 @@
     <col min="8" max="8" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>574</v>
+      </c>
       <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F3" s="26">
+        <v>30200</v>
+      </c>
+      <c r="G3" s="26">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>575</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>508</v>
+      </c>
+      <c r="F4" s="26">
+        <v>46300</v>
+      </c>
+      <c r="G4" s="26">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="25" t="s">
+        <v>576</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" t="s">
+        <v>509</v>
+      </c>
+      <c r="F5" s="26">
+        <v>29000</v>
+      </c>
+      <c r="G5" s="26">
+        <v>29500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>577</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="D6" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>510</v>
+      </c>
+      <c r="F6" s="26">
+        <v>59000</v>
+      </c>
+      <c r="G6" s="26">
+        <v>61000</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>578</v>
+      </c>
       <c r="B9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s">
+        <v>511</v>
+      </c>
+      <c r="F9" s="26">
+        <v>6500</v>
+      </c>
+      <c r="G9" s="26">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>579</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>512</v>
+      </c>
+      <c r="F10" s="26">
+        <v>4000</v>
+      </c>
+      <c r="G10" s="26">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>580</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>513</v>
+      </c>
+      <c r="F11" s="26">
+        <v>22000</v>
+      </c>
+      <c r="G11" s="26">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>581</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>514</v>
+      </c>
+      <c r="F12" s="26">
+        <v>18000</v>
+      </c>
+      <c r="G12" s="26">
+        <v>18300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="7" t="s">
+      <c r="C13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E13" t="s">
+        <v>514</v>
+      </c>
+      <c r="F13" s="26">
+        <v>5900</v>
+      </c>
+      <c r="G13" s="26">
+        <v>6200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>583</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" t="s">
+        <v>515</v>
+      </c>
+      <c r="F14" s="26">
+        <v>4000</v>
+      </c>
+      <c r="G14" s="26">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>584</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>516</v>
+      </c>
+      <c r="F15" s="26">
+        <v>18300</v>
+      </c>
+      <c r="G15" s="26">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>585</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>86</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>517</v>
+      </c>
+      <c r="F16" s="26">
+        <v>18500</v>
+      </c>
+      <c r="G16" s="26">
+        <v>19200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="16" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>538</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="27" t="s">
+        <v>563</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>587</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>588</v>
+      </c>
       <c r="B25" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
         <v>94</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>518</v>
+      </c>
+      <c r="F25" s="26">
+        <v>13800</v>
+      </c>
+      <c r="G25" s="26">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>589</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E26" t="s">
+        <v>519</v>
+      </c>
+      <c r="F26" s="26">
+        <v>5200</v>
+      </c>
+      <c r="G26" s="26">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="25" t="s">
+        <v>590</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
         <v>98</v>
       </c>
-      <c r="D25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="E27" t="s">
+        <v>520</v>
+      </c>
+      <c r="F27" s="26">
+        <v>6700</v>
+      </c>
+      <c r="G27" s="26">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>543</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>545</v>
+      </c>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>544</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>546</v>
+      </c>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>547</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>567</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" t="s">
+        <v>102</v>
+      </c>
+      <c r="E35" t="s">
+        <v>521</v>
+      </c>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>591</v>
+      </c>
+      <c r="B36" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" t="s">
+        <v>106</v>
+      </c>
+      <c r="E36" t="s">
+        <v>522</v>
+      </c>
+      <c r="F36" s="26">
+        <v>42000</v>
+      </c>
+      <c r="G36" s="26">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="25" t="s">
+        <v>592</v>
+      </c>
+      <c r="B37" s="17" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="C27" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="C37" t="s">
+        <v>103</v>
+      </c>
+      <c r="D37" t="s">
+        <v>104</v>
+      </c>
+      <c r="E37" t="s">
+        <v>522</v>
+      </c>
+      <c r="F37" s="26">
+        <v>88200</v>
+      </c>
+      <c r="G37" s="26">
+        <v>88600</v>
+      </c>
+      <c r="H37" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="25" t="s">
+        <v>593</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" t="s">
+        <v>323</v>
+      </c>
+      <c r="F40" s="26">
+        <v>3500</v>
+      </c>
+      <c r="G40" s="26">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
+        <v>594</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
         <v>109</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D41" t="s">
+        <v>111</v>
+      </c>
+      <c r="E41" t="s">
+        <v>525</v>
+      </c>
+      <c r="F41" s="26">
+        <v>2400</v>
+      </c>
+      <c r="G41" s="26">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>595</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C37" t="s">
-        <v>107</v>
-      </c>
-      <c r="D37" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D42" t="s">
         <v>113</v>
       </c>
-      <c r="D41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" t="s">
-        <v>117</v>
-      </c>
+      <c r="E42" t="s">
+        <v>526</v>
+      </c>
+      <c r="F42" s="26">
+        <v>4000</v>
+      </c>
+      <c r="G42" s="26">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+    </row>
+    <row r="49" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+    </row>
+    <row r="50" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+    </row>
+    <row r="51" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+    </row>
+    <row r="52" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+    </row>
+    <row r="53" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+    </row>
+    <row r="54" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+    </row>
+    <row r="55" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+    </row>
+    <row r="56" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+    </row>
+    <row r="57" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+    </row>
+    <row r="58" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+    </row>
+    <row r="59" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+    </row>
+    <row r="60" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+    </row>
+    <row r="61" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+    </row>
+    <row r="62" spans="6:7" x14ac:dyDescent="0.3">
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B41" r:id="rId1" display="https://pangoly.com/en/review/hec-hx300" xr:uid="{FA4EE91F-D535-4030-9874-C31888691135}"/>
     <hyperlink ref="B40" r:id="rId2" display="https://pangoly.com/en/review/cougar-mx340" xr:uid="{0180970A-8002-43E6-A431-FAF543D17EDA}"/>
-    <hyperlink ref="B42" r:id="rId3" display="https://pangoly.com/en/review/phanteks-eclipse-steel" xr:uid="{10072145-63DA-421A-9EDC-A857BCC5A0C7}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{06AC702A-4877-4F90-AEB3-8C2DC4978A72}"/>
+    <hyperlink ref="B42" r:id="rId4" display="https://pangoly.com/en/review/phanteks-eclipse-steel" xr:uid="{10072145-63DA-421A-9EDC-A857BCC5A0C7}"/>
+    <hyperlink ref="A3" r:id="rId5" xr:uid="{6FD972EA-016C-4184-9546-272872EEEAED}"/>
+    <hyperlink ref="A4" r:id="rId6" xr:uid="{09302AE4-3803-4642-A8A6-FC074656AFED}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{D42A0A21-CF26-4856-9DD4-269A51308101}"/>
+    <hyperlink ref="A6" r:id="rId8" xr:uid="{3CC9E978-8666-4C0A-BC8F-9F94E6BAC4F4}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{E2A5FCB8-E624-4B85-81DC-504C2CE52C98}"/>
+    <hyperlink ref="A10" r:id="rId10" xr:uid="{406ABB4F-0A2C-44B4-A395-7FC5421F7E3A}"/>
+    <hyperlink ref="A11" r:id="rId11" xr:uid="{730383C1-B9DB-4001-80FF-4F8C350600C2}"/>
+    <hyperlink ref="A12" r:id="rId12" xr:uid="{7C8DE06D-873A-45EF-B9F2-3DF5C5058BD2}"/>
+    <hyperlink ref="A13" r:id="rId13" xr:uid="{8F26ACDB-DF4A-407F-A022-718E08A1B25F}"/>
+    <hyperlink ref="A14" r:id="rId14" xr:uid="{DFDBBB57-8604-4CE7-9FDB-7270B719BBDF}"/>
+    <hyperlink ref="A15" r:id="rId15" xr:uid="{E634EBD6-C7EE-4122-AD09-B7F1385DB20F}"/>
+    <hyperlink ref="A16" r:id="rId16" xr:uid="{E7BA6A66-7532-4179-AC7C-32DF29022D86}"/>
+    <hyperlink ref="A20" r:id="rId17" xr:uid="{65E9800C-DD19-4D12-A52A-707F4D93B985}"/>
+    <hyperlink ref="A21" r:id="rId18" xr:uid="{1E2389CF-B4AF-4EA7-BDCD-ABECE23F1616}"/>
+    <hyperlink ref="A22" r:id="rId19" xr:uid="{EF6CC5C0-7424-4DA7-B9A9-F8F00DD9458D}"/>
+    <hyperlink ref="A25" r:id="rId20" xr:uid="{515F4ED4-B31F-4AA5-920D-A54B0248D4BF}"/>
+    <hyperlink ref="A26" r:id="rId21" xr:uid="{E15BFC53-E729-4BF1-B9B9-D254DD74E485}"/>
+    <hyperlink ref="A27" r:id="rId22" xr:uid="{E2B3D928-45C8-479C-8FFB-01DC3444598C}"/>
+    <hyperlink ref="A32" r:id="rId23" xr:uid="{42A469A2-6D79-41EF-823E-929B036D4F3B}"/>
+    <hyperlink ref="D31" r:id="rId24" xr:uid="{74F1CD94-E0C3-4BE6-B378-5E12C3E0B334}"/>
+    <hyperlink ref="D32" r:id="rId25" xr:uid="{703AF116-15D2-480C-9AE8-8D18978C16B5}"/>
+    <hyperlink ref="A35" r:id="rId26" xr:uid="{D63846CC-2951-44D5-9C4C-A272A6B9296C}"/>
+    <hyperlink ref="A36" r:id="rId27" xr:uid="{4143E59C-4870-4A9A-A683-5760053CE134}"/>
+    <hyperlink ref="A37" r:id="rId28" xr:uid="{7EB1ED5C-400B-4C73-AB82-DDF9DA603E0D}"/>
+    <hyperlink ref="A40" r:id="rId29" xr:uid="{79C6D4E8-6A5F-4BFC-AEB0-9F62082901F7}"/>
+    <hyperlink ref="A41" r:id="rId30" xr:uid="{CD519AA0-D86A-4F0E-B07E-6F8FD2D51224}"/>
+    <hyperlink ref="A42" r:id="rId31" xr:uid="{C8439976-2677-4F6F-A0E2-4DD3181C8627}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId32"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF7D063-FBA9-4704-9E41-26CBEF1CD623}">
+  <dimension ref="B2:T7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>334</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2">
+        <v>25000</v>
+      </c>
+      <c r="E2">
+        <v>27000</v>
+      </c>
+      <c r="G2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="I2">
+        <v>20000</v>
+      </c>
+      <c r="J2">
+        <v>22000</v>
+      </c>
+      <c r="L2" t="s">
+        <v>336</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="N2">
+        <v>55000</v>
+      </c>
+      <c r="O2">
+        <v>62000</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>337</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="S2">
+        <v>32000</v>
+      </c>
+      <c r="T2">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" t="s">
+        <v>339</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="L3" t="s">
+        <v>340</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>341</v>
+      </c>
+      <c r="R3" s="19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C4" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="M4" s="19" t="s">
+        <v>352</v>
+      </c>
+      <c r="R4" s="19" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C5" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>345</v>
+      </c>
+      <c r="M5" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>354</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C7" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>355</v>
+      </c>
+      <c r="R7" s="19" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>